--- a/data-result/data-direction.xlsx
+++ b/data-result/data-direction.xlsx
@@ -82,10 +82,10 @@
     <t>8-31</t>
   </si>
   <si>
-    <t>0	2	3	4	5	6	7	10	11	12	13	14</t>
-  </si>
-  <si>
-    <t>0	0	0	2	3	0	2	1	3	3	5	1</t>
+    <t>0	2	3	4	5	6	7	10	11	12	13</t>
+  </si>
+  <si>
+    <t>0	0	0	2	3	0	2	1	3	3	5</t>
   </si>
   <si>
     <t>10-1</t>
@@ -166,10 +166,10 @@
     <t>9-52</t>
   </si>
   <si>
-    <t>3	7	10	12	14	1.1	6.0	9.0</t>
-  </si>
-  <si>
-    <t>0	2	1	2	1	1	3	0</t>
+    <t>3	7	10	14	1.1	6.0	9.0</t>
+  </si>
+  <si>
+    <t>0	2	1	1	1	3	0</t>
   </si>
   <si>
     <t>15-2</t>
@@ -202,10 +202,10 @@
     <t>9-50</t>
   </si>
   <si>
-    <t>1	2	3	8	9	10	13	15	18	20	21	22	4.0	11.0	6.0</t>
-  </si>
-  <si>
-    <t>2	0	0	0	2	2	3	0	3	0	3	1	2	2	1</t>
+    <t>1	2	3	8	9	10	13	15	18	21	22	4.0	11.0	6.0</t>
+  </si>
+  <si>
+    <t>2	0	0	0	2	2	3	0	3	3	1	2	2	1</t>
   </si>
   <si>
     <t>15-7</t>
@@ -250,10 +250,10 @@
     <t>9-74</t>
   </si>
   <si>
-    <t>1	3	0.0	2.0	7.0	5.0	6.0</t>
-  </si>
-  <si>
-    <t>0	1	5	0	1	1	0</t>
+    <t>1	3	2.0	7.0	5.0	6.0</t>
+  </si>
+  <si>
+    <t>0	1	0	1	1	0</t>
   </si>
   <si>
     <t>30-3</t>

--- a/data-result/data-direction.xlsx
+++ b/data-result/data-direction.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="data-derection"/>
+    <sheet r:id="rId1" sheetId="1" name="data-direction"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
